--- a/data/trans_orig/P04D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61C3725-7211-4D9A-B331-DE9B79774330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{044F4F2F-5ED9-4139-A45A-6CBCBF27E38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFF6D163-7D2C-49F2-B8F1-04FC6B026549}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB2D238D-7AAB-4798-9858-93AB08496324}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -739,316 +739,316 @@
     <t>Población según si disponen de algún tipo de calefacción (individual, colectiva o con aparatos) en la vivenda en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF9BB8-14A3-4B48-969B-104916909FB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE33A0-A01D-4893-9655-A375AF98391B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1647,7 @@
         <v>895</v>
       </c>
       <c r="I5" s="7">
-        <v>964395</v>
+        <v>964396</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1698,7 +1698,7 @@
         <v>281</v>
       </c>
       <c r="I6" s="7">
-        <v>297619</v>
+        <v>297620</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1749,7 +1749,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2074,7 +2074,7 @@
         <v>426</v>
       </c>
       <c r="N13" s="7">
-        <v>473296</v>
+        <v>473297</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2125,7 +2125,7 @@
         <v>404</v>
       </c>
       <c r="N14" s="7">
-        <v>444229</v>
+        <v>444230</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2176,7 +2176,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2415,7 +2415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F7C0ED-8EAF-4D96-83E6-37BF2264636E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC7FFE-283E-4C71-AE04-74A84C82368F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3080,7 +3080,7 @@
         <v>456</v>
       </c>
       <c r="N14" s="7">
-        <v>488757</v>
+        <v>488758</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>204</v>
@@ -3131,7 +3131,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3370,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A54AD-C009-48FB-9CC7-724E85A68AAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B20994-6F12-402E-A074-A9E1B9378D1B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3491,7 +3491,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>67922</v>
+        <v>68152</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3506,7 +3506,7 @@
         <v>166</v>
       </c>
       <c r="I4" s="7">
-        <v>100054</v>
+        <v>91061</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3521,7 +3521,7 @@
         <v>248</v>
       </c>
       <c r="N4" s="7">
-        <v>167976</v>
+        <v>159213</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3530,7 +3530,7 @@
         <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,46 +3542,46 @@
         <v>501</v>
       </c>
       <c r="D5" s="7">
-        <v>387454</v>
+        <v>362680</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1083</v>
       </c>
       <c r="I5" s="7">
-        <v>632737</v>
+        <v>568757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1584</v>
       </c>
       <c r="N5" s="7">
-        <v>1020191</v>
+        <v>931437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3593,13 @@
         <v>107</v>
       </c>
       <c r="D6" s="7">
-        <v>85208</v>
+        <v>83088</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>252</v>
@@ -3608,7 +3608,7 @@
         <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>103162</v>
+        <v>95690</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>253</v>
@@ -3617,22 +3617,22 @@
         <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>285</v>
       </c>
       <c r="N6" s="7">
-        <v>188370</v>
+        <v>178777</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
         <v>690</v>
       </c>
       <c r="D7" s="7">
-        <v>540584</v>
+        <v>513919</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3659,7 +3659,7 @@
         <v>1427</v>
       </c>
       <c r="I7" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3674,7 +3674,7 @@
         <v>2117</v>
       </c>
       <c r="N7" s="7">
-        <v>1376537</v>
+        <v>1269427</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3697,46 +3697,46 @@
         <v>222</v>
       </c>
       <c r="D8" s="7">
-        <v>227513</v>
+        <v>233623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>344</v>
       </c>
       <c r="I8" s="7">
-        <v>237940</v>
+        <v>282914</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>566</v>
       </c>
       <c r="N8" s="7">
-        <v>465453</v>
+        <v>516537</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,46 +3748,46 @@
         <v>1341</v>
       </c>
       <c r="D9" s="7">
-        <v>1423814</v>
+        <v>1348107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>1951</v>
       </c>
       <c r="I9" s="7">
-        <v>1555908</v>
+        <v>1527553</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>3292</v>
       </c>
       <c r="N9" s="7">
-        <v>2979723</v>
+        <v>2875660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,46 +3799,46 @@
         <v>429</v>
       </c>
       <c r="D10" s="7">
-        <v>510694</v>
+        <v>708597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>626</v>
       </c>
       <c r="I10" s="7">
-        <v>455672</v>
+        <v>427357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>1055</v>
       </c>
       <c r="N10" s="7">
-        <v>966367</v>
+        <v>1135953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3850,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3865,7 +3865,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3880,7 +3880,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3903,10 +3903,10 @@
         <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>58151</v>
+        <v>57579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>285</v>
@@ -3918,7 +3918,7 @@
         <v>101</v>
       </c>
       <c r="I12" s="7">
-        <v>73358</v>
+        <v>69265</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>287</v>
@@ -3933,16 +3933,16 @@
         <v>163</v>
       </c>
       <c r="N12" s="7">
-        <v>131509</v>
+        <v>126844</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,46 +3954,46 @@
         <v>355</v>
       </c>
       <c r="D13" s="7">
-        <v>363661</v>
+        <v>343848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>505</v>
       </c>
       <c r="I13" s="7">
-        <v>356724</v>
+        <v>325267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>860</v>
       </c>
       <c r="N13" s="7">
-        <v>720386</v>
+        <v>669115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,46 +4005,46 @@
         <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>251228</v>
+        <v>245196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
       </c>
       <c r="I14" s="7">
-        <v>283803</v>
+        <v>265931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>662</v>
       </c>
       <c r="N14" s="7">
-        <v>535031</v>
+        <v>511127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4071,7 +4071,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4086,7 +4086,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4109,43 +4109,43 @@
         <v>366</v>
       </c>
       <c r="D16" s="7">
-        <v>353586</v>
+        <v>359354</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>611</v>
       </c>
       <c r="I16" s="7">
-        <v>411352</v>
+        <v>443240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>977</v>
       </c>
       <c r="N16" s="7">
-        <v>764938</v>
+        <v>802593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>318</v>
@@ -4160,7 +4160,7 @@
         <v>2197</v>
       </c>
       <c r="D17" s="7">
-        <v>2174929</v>
+        <v>2054635</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>319</v>
@@ -4175,7 +4175,7 @@
         <v>3539</v>
       </c>
       <c r="I17" s="7">
-        <v>2545370</v>
+        <v>2421577</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>322</v>
@@ -4190,7 +4190,7 @@
         <v>5736</v>
       </c>
       <c r="N17" s="7">
-        <v>4720299</v>
+        <v>4476212</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>325</v>
@@ -4211,7 +4211,7 @@
         <v>800</v>
       </c>
       <c r="D18" s="7">
-        <v>847130</v>
+        <v>1036880</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>328</v>
@@ -4226,7 +4226,7 @@
         <v>1202</v>
       </c>
       <c r="I18" s="7">
-        <v>842638</v>
+        <v>788978</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>331</v>
@@ -4241,7 +4241,7 @@
         <v>2002</v>
       </c>
       <c r="N18" s="7">
-        <v>1689768</v>
+        <v>1825858</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>334</v>
@@ -4262,7 +4262,7 @@
         <v>3363</v>
       </c>
       <c r="D19" s="7">
-        <v>3375645</v>
+        <v>3450869</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4277,7 +4277,7 @@
         <v>5352</v>
       </c>
       <c r="I19" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4292,7 +4292,7 @@
         <v>8715</v>
       </c>
       <c r="N19" s="7">
-        <v>7175005</v>
+        <v>7104663</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
